--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H2">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I2">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J2">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.151646949453937</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N2">
-        <v>0.151646949453937</v>
+        <v>0.69148</v>
       </c>
       <c r="O2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q2">
-        <v>0.002047455647494487</v>
+        <v>0.0043528666</v>
       </c>
       <c r="R2">
-        <v>0.002047455647494487</v>
+        <v>0.0391757994</v>
       </c>
       <c r="S2">
-        <v>0.0004576126761668614</v>
+        <v>0.0004611048398368197</v>
       </c>
       <c r="T2">
-        <v>0.0004576126761668614</v>
+        <v>0.0004611048398368197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H3">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I3">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J3">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.29552741007957</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N3">
-        <v>4.29552741007957</v>
+        <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q3">
-        <v>0.05799590355364352</v>
+        <v>0.08146638368499999</v>
       </c>
       <c r="R3">
-        <v>0.05799590355364352</v>
+        <v>0.733197453165</v>
       </c>
       <c r="S3">
-        <v>0.01296226400038268</v>
+        <v>0.008629840345016966</v>
       </c>
       <c r="T3">
-        <v>0.01296226400038268</v>
+        <v>0.008629840345016964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H4">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I4">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J4">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.283070309117136</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N4">
-        <v>0.283070309117136</v>
+        <v>0.886007</v>
       </c>
       <c r="O4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q4">
-        <v>0.003821863249652357</v>
+        <v>0.005577414064999999</v>
       </c>
       <c r="R4">
-        <v>0.003821863249652357</v>
+        <v>0.050196726585</v>
       </c>
       <c r="S4">
-        <v>0.0008541982688403516</v>
+        <v>0.0005908227509534638</v>
       </c>
       <c r="T4">
-        <v>0.0008541982688403516</v>
+        <v>0.0005908227509534637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H5">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I5">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J5">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496229936752384</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N5">
-        <v>0.496229936752384</v>
+        <v>2.150013</v>
       </c>
       <c r="O5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q5">
-        <v>0.006699830033627648</v>
+        <v>0.013534331835</v>
       </c>
       <c r="R5">
-        <v>0.006699830033627648</v>
+        <v>0.121808986515</v>
       </c>
       <c r="S5">
-        <v>0.001497432755284979</v>
+        <v>0.001433709434852895</v>
       </c>
       <c r="T5">
-        <v>0.001497432755284979</v>
+        <v>0.001433709434852895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H6">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I6">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J6">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.31853603120976</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N6">
-        <v>9.31853603120976</v>
+        <v>0.934958</v>
       </c>
       <c r="O6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q6">
-        <v>0.1258138676193856</v>
+        <v>0.005885560609999999</v>
       </c>
       <c r="R6">
-        <v>0.1258138676193856</v>
+        <v>0.05297004548999999</v>
       </c>
       <c r="S6">
-        <v>0.02811978893445861</v>
+        <v>0.0006234651166254313</v>
       </c>
       <c r="T6">
-        <v>0.02811978893445861</v>
+        <v>0.0006234651166254313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.165837508187592</v>
+        <v>0.018885</v>
       </c>
       <c r="H7">
-        <v>0.165837508187592</v>
+        <v>0.056655</v>
       </c>
       <c r="I7">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J7">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.151646949453937</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N7">
-        <v>0.151646949453937</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q7">
-        <v>0.02514875222169063</v>
+        <v>0.220821921005</v>
       </c>
       <c r="R7">
-        <v>0.02514875222169063</v>
+        <v>1.987397289045</v>
       </c>
       <c r="S7">
-        <v>0.00562082398244289</v>
+        <v>0.02339195428535976</v>
       </c>
       <c r="T7">
-        <v>0.00562082398244289</v>
+        <v>0.02339195428535976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H8">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J8">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.29552741007957</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N8">
-        <v>4.29552741007957</v>
+        <v>0.69148</v>
       </c>
       <c r="O8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q8">
-        <v>0.7123595620390966</v>
+        <v>0.03832274357333333</v>
       </c>
       <c r="R8">
-        <v>0.7123595620390966</v>
+        <v>0.34490469216</v>
       </c>
       <c r="S8">
-        <v>0.1592145675910872</v>
+        <v>0.004059578241494784</v>
       </c>
       <c r="T8">
-        <v>0.1592145675910872</v>
+        <v>0.004059578241494784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H9">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J9">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.283070309117136</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N9">
-        <v>0.283070309117136</v>
+        <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q9">
-        <v>0.04694367470587724</v>
+        <v>0.7172320263173333</v>
       </c>
       <c r="R9">
-        <v>0.04694367470587724</v>
+        <v>6.455088236856</v>
       </c>
       <c r="S9">
-        <v>0.010492056635049</v>
+        <v>0.07597732460280121</v>
       </c>
       <c r="T9">
-        <v>0.010492056635049</v>
+        <v>0.07597732460280121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H10">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I10">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J10">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.496229936752384</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N10">
-        <v>0.496229936752384</v>
+        <v>0.886007</v>
       </c>
       <c r="O10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q10">
-        <v>0.08229353619910174</v>
+        <v>0.04910368928266667</v>
       </c>
       <c r="R10">
-        <v>0.08229353619910174</v>
+        <v>0.441933203544</v>
       </c>
       <c r="S10">
-        <v>0.0183928601224593</v>
+        <v>0.005201617890628896</v>
       </c>
       <c r="T10">
-        <v>0.0183928601224593</v>
+        <v>0.005201617890628896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H11">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I11">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J11">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.31853603120976</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N11">
-        <v>9.31853603120976</v>
+        <v>2.150013</v>
       </c>
       <c r="O11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q11">
-        <v>1.54536279537212</v>
+        <v>0.119156587144</v>
       </c>
       <c r="R11">
-        <v>1.54536279537212</v>
+        <v>1.072409284296</v>
       </c>
       <c r="S11">
-        <v>0.3453933692308915</v>
+        <v>0.01262241278667629</v>
       </c>
       <c r="T11">
-        <v>0.3453933692308915</v>
+        <v>0.0126224127866763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H12">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I12">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J12">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.151646949453937</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N12">
-        <v>0.151646949453937</v>
+        <v>0.934958</v>
       </c>
       <c r="O12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q12">
-        <v>0.01945212117233081</v>
+        <v>0.05181661897066666</v>
       </c>
       <c r="R12">
-        <v>0.01945212117233081</v>
+        <v>0.466349570736</v>
       </c>
       <c r="S12">
-        <v>0.004347609306060113</v>
+        <v>0.005489002073106207</v>
       </c>
       <c r="T12">
-        <v>0.004347609306060113</v>
+        <v>0.005489002073106207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H13">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I13">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J13">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.29552741007957</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N13">
-        <v>4.29552741007957</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q13">
-        <v>0.5509976955079913</v>
+        <v>1.944121571298667</v>
       </c>
       <c r="R13">
-        <v>0.5509976955079913</v>
+        <v>17.497094141688</v>
       </c>
       <c r="S13">
-        <v>0.1231496908427484</v>
+        <v>0.2059433353085018</v>
       </c>
       <c r="T13">
-        <v>0.1231496908427484</v>
+        <v>0.2059433353085018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.128272419869807</v>
+        <v>0.109935</v>
       </c>
       <c r="H14">
-        <v>0.128272419869807</v>
+        <v>0.329805</v>
       </c>
       <c r="I14">
-        <v>0.4169950258029365</v>
+        <v>0.2045070233889736</v>
       </c>
       <c r="J14">
-        <v>0.4169950258029365</v>
+        <v>0.2045070233889736</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.283070309117136</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N14">
-        <v>0.283070309117136</v>
+        <v>0.69148</v>
       </c>
       <c r="O14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q14">
-        <v>0.03631011354374932</v>
+        <v>0.0253392846</v>
       </c>
       <c r="R14">
-        <v>0.03631011354374932</v>
+        <v>0.2280535614</v>
       </c>
       <c r="S14">
-        <v>0.008115422793656615</v>
+        <v>0.002684223487818945</v>
       </c>
       <c r="T14">
-        <v>0.008115422793656615</v>
+        <v>0.002684223487818945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.128272419869807</v>
+        <v>0.109935</v>
       </c>
       <c r="H15">
-        <v>0.128272419869807</v>
+        <v>0.329805</v>
       </c>
       <c r="I15">
-        <v>0.4169950258029365</v>
+        <v>0.2045070233889736</v>
       </c>
       <c r="J15">
-        <v>0.4169950258029365</v>
+        <v>0.2045070233889736</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.496229936752384</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N15">
-        <v>0.496229936752384</v>
+        <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q15">
-        <v>0.06365261479906957</v>
+        <v>0.474239178735</v>
       </c>
       <c r="R15">
-        <v>0.06365261479906957</v>
+        <v>4.268152608615</v>
       </c>
       <c r="S15">
-        <v>0.01422655647699398</v>
+        <v>0.05023677512996771</v>
       </c>
       <c r="T15">
-        <v>0.01422655647699398</v>
+        <v>0.05023677512996771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,49 +1408,1351 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.128272419869807</v>
+        <v>0.109935</v>
       </c>
       <c r="H16">
-        <v>0.128272419869807</v>
+        <v>0.329805</v>
       </c>
       <c r="I16">
-        <v>0.4169950258029365</v>
+        <v>0.2045070233889736</v>
       </c>
       <c r="J16">
-        <v>0.4169950258029365</v>
+        <v>0.2045070233889736</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.31853603120976</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N16">
-        <v>9.31853603120976</v>
+        <v>0.886007</v>
       </c>
       <c r="O16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q16">
-        <v>1.195311166367263</v>
+        <v>0.032467726515</v>
       </c>
       <c r="R16">
-        <v>1.195311166367263</v>
+        <v>0.292209538635</v>
       </c>
       <c r="S16">
-        <v>0.2671557463834774</v>
+        <v>0.0034393486431596</v>
       </c>
       <c r="T16">
-        <v>0.2671557463834774</v>
+        <v>0.003439348643159599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.109935</v>
+      </c>
+      <c r="H17">
+        <v>0.329805</v>
+      </c>
+      <c r="I17">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J17">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.150013</v>
+      </c>
+      <c r="O17">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P17">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q17">
+        <v>0.07878722638499999</v>
+      </c>
+      <c r="R17">
+        <v>0.7090850374650001</v>
+      </c>
+      <c r="S17">
+        <v>0.008346033715676625</v>
+      </c>
+      <c r="T17">
+        <v>0.008346033715676625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.109935</v>
+      </c>
+      <c r="H18">
+        <v>0.329805</v>
+      </c>
+      <c r="I18">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J18">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.934958</v>
+      </c>
+      <c r="O18">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P18">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q18">
+        <v>0.03426153590999999</v>
+      </c>
+      <c r="R18">
+        <v>0.30835382319</v>
+      </c>
+      <c r="S18">
+        <v>0.003629369213461308</v>
+      </c>
+      <c r="T18">
+        <v>0.003629369213461308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.109935</v>
+      </c>
+      <c r="H19">
+        <v>0.329805</v>
+      </c>
+      <c r="I19">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J19">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N19">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P19">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q19">
+        <v>1.285467719655</v>
+      </c>
+      <c r="R19">
+        <v>11.569209476895</v>
+      </c>
+      <c r="S19">
+        <v>0.1361712731988894</v>
+      </c>
+      <c r="T19">
+        <v>0.1361712731988894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.23617</v>
+      </c>
+      <c r="I20">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J20">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.69148</v>
+      </c>
+      <c r="O20">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P20">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q20">
+        <v>0.01814520351111111</v>
+      </c>
+      <c r="R20">
+        <v>0.1633068316</v>
+      </c>
+      <c r="S20">
+        <v>0.001922145089122967</v>
+      </c>
+      <c r="T20">
+        <v>0.001922145089122967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.23617</v>
+      </c>
+      <c r="I21">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J21">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.941443</v>
+      </c>
+      <c r="O21">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P21">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q21">
+        <v>0.3395978437011111</v>
+      </c>
+      <c r="R21">
+        <v>3.05638059331</v>
+      </c>
+      <c r="S21">
+        <v>0.0359740427902684</v>
+      </c>
+      <c r="T21">
+        <v>0.03597404279026841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.23617</v>
+      </c>
+      <c r="I22">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J22">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.886007</v>
+      </c>
+      <c r="O22">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P22">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q22">
+        <v>0.02324980813222222</v>
+      </c>
+      <c r="R22">
+        <v>0.20924827319</v>
+      </c>
+      <c r="S22">
+        <v>0.002462882518624649</v>
+      </c>
+      <c r="T22">
+        <v>0.002462882518624649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.23617</v>
+      </c>
+      <c r="I23">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J23">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.150013</v>
+      </c>
+      <c r="O23">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P23">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q23">
+        <v>0.05641873002333332</v>
+      </c>
+      <c r="R23">
+        <v>0.50776857021</v>
+      </c>
+      <c r="S23">
+        <v>0.005976509703101373</v>
+      </c>
+      <c r="T23">
+        <v>0.005976509703101374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.23617</v>
+      </c>
+      <c r="I24">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J24">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.934958</v>
+      </c>
+      <c r="O24">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P24">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q24">
+        <v>0.02453433676222222</v>
+      </c>
+      <c r="R24">
+        <v>0.22080903086</v>
+      </c>
+      <c r="S24">
+        <v>0.002598954312830784</v>
+      </c>
+      <c r="T24">
+        <v>0.002598954312830785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.23617</v>
+      </c>
+      <c r="I25">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J25">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N25">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P25">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q25">
+        <v>0.9205103359588889</v>
+      </c>
+      <c r="R25">
+        <v>8.28459302363</v>
+      </c>
+      <c r="S25">
+        <v>0.09751086124037446</v>
+      </c>
+      <c r="T25">
+        <v>0.09751086124037447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.039814</v>
+      </c>
+      <c r="I26">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J26">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.69148</v>
+      </c>
+      <c r="O26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q26">
+        <v>0.003058953857777778</v>
+      </c>
+      <c r="R26">
+        <v>0.02753058472</v>
+      </c>
+      <c r="S26">
+        <v>0.0003240389743758387</v>
+      </c>
+      <c r="T26">
+        <v>0.0003240389743758387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.039814</v>
+      </c>
+      <c r="I27">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J27">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N27">
+        <v>12.941443</v>
+      </c>
+      <c r="O27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q27">
+        <v>0.05725006795577779</v>
+      </c>
+      <c r="R27">
+        <v>0.515250611602</v>
+      </c>
+      <c r="S27">
+        <v>0.006064574415259121</v>
+      </c>
+      <c r="T27">
+        <v>0.00606457441525912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.039814</v>
+      </c>
+      <c r="I28">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J28">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.886007</v>
+      </c>
+      <c r="O28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q28">
+        <v>0.003919498077555556</v>
+      </c>
+      <c r="R28">
+        <v>0.035275482698</v>
+      </c>
+      <c r="S28">
+        <v>0.000415197546667747</v>
+      </c>
+      <c r="T28">
+        <v>0.0004151975466677469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.039814</v>
+      </c>
+      <c r="I29">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J29">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N29">
+        <v>2.150013</v>
+      </c>
+      <c r="O29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q29">
+        <v>0.009511179731333334</v>
+      </c>
+      <c r="R29">
+        <v>0.08560061758200001</v>
+      </c>
+      <c r="S29">
+        <v>0.001007531681920981</v>
+      </c>
+      <c r="T29">
+        <v>0.001007531681920981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.039814</v>
+      </c>
+      <c r="I30">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J30">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.934958</v>
+      </c>
+      <c r="O30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q30">
+        <v>0.004136046423555555</v>
+      </c>
+      <c r="R30">
+        <v>0.037224417812</v>
+      </c>
+      <c r="S30">
+        <v>0.0004381367955754113</v>
+      </c>
+      <c r="T30">
+        <v>0.0004381367955754113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.039814</v>
+      </c>
+      <c r="I31">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J31">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N31">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q31">
+        <v>0.1551814308162223</v>
+      </c>
+      <c r="R31">
+        <v>1.396632877346</v>
+      </c>
+      <c r="S31">
+        <v>0.01643857149267168</v>
+      </c>
+      <c r="T31">
+        <v>0.01643857149267168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.451447</v>
+      </c>
+      <c r="I32">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J32">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.69148</v>
+      </c>
+      <c r="O32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q32">
+        <v>0.03468517461777777</v>
+      </c>
+      <c r="R32">
+        <v>0.31216657156</v>
+      </c>
+      <c r="S32">
+        <v>0.003674245814664421</v>
+      </c>
+      <c r="T32">
+        <v>0.00367424581466442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.451447</v>
+      </c>
+      <c r="I33">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J33">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N33">
+        <v>12.941443</v>
+      </c>
+      <c r="O33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q33">
+        <v>0.6491528464467777</v>
+      </c>
+      <c r="R33">
+        <v>5.842375618020999</v>
+      </c>
+      <c r="S33">
+        <v>0.06876560822940384</v>
+      </c>
+      <c r="T33">
+        <v>0.06876560822940382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.451447</v>
+      </c>
+      <c r="I34">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J34">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.886007</v>
+      </c>
+      <c r="O34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q34">
+        <v>0.04444280023655555</v>
+      </c>
+      <c r="R34">
+        <v>0.399985202129</v>
+      </c>
+      <c r="S34">
+        <v>0.004707883831077369</v>
+      </c>
+      <c r="T34">
+        <v>0.004707883831077368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.451447</v>
+      </c>
+      <c r="I35">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J35">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N35">
+        <v>2.150013</v>
+      </c>
+      <c r="O35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q35">
+        <v>0.1078463243123333</v>
+      </c>
+      <c r="R35">
+        <v>0.970616918811</v>
+      </c>
+      <c r="S35">
+        <v>0.01142430188396497</v>
+      </c>
+      <c r="T35">
+        <v>0.01142430188396497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.451447</v>
+      </c>
+      <c r="I36">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J36">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.934958</v>
+      </c>
+      <c r="O36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q36">
+        <v>0.04689822046955555</v>
+      </c>
+      <c r="R36">
+        <v>0.422083984226</v>
+      </c>
+      <c r="S36">
+        <v>0.00496798970091256</v>
+      </c>
+      <c r="T36">
+        <v>0.00496798970091256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.451447</v>
+      </c>
+      <c r="I37">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J37">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N37">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q37">
+        <v>1.759586863859222</v>
+      </c>
+      <c r="R37">
+        <v>15.836281774733</v>
+      </c>
+      <c r="S37">
+        <v>0.1863953329143555</v>
+      </c>
+      <c r="T37">
+        <v>0.1863953329143555</v>
       </c>
     </row>
   </sheetData>
